--- a/documents/server-dbs.xlsx
+++ b/documents/server-dbs.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="20">
   <si>
     <t>IP</t>
   </si>
@@ -32,7 +32,10 @@
     <t>pwd</t>
   </si>
   <si>
-    <t>218.17.39.178</t>
+    <t>environment</t>
+  </si>
+  <si>
+    <t>172.16.5.33</t>
   </si>
   <si>
     <t>mysql</t>
@@ -44,14 +47,34 @@
     <t>@vpclubdev</t>
   </si>
   <si>
+    <t>test</t>
+  </si>
+  <si>
     <t>redis</t>
   </si>
   <si>
     <t>mongodb</t>
   </si>
   <si>
-    <t>112.74.129.206
-</t>
+    <t>172.16.5.30</t>
+  </si>
+  <si>
+    <t>2181,2182,2183</t>
+  </si>
+  <si>
+    <t>zookeeper</t>
+  </si>
+  <si>
+    <t>rabbitmq</t>
+  </si>
+  <si>
+    <t>guest</t>
+  </si>
+  <si>
+    <t>172.16.5.34</t>
+  </si>
+  <si>
+    <t>develop</t>
   </si>
 </sst>
 </file>
@@ -61,11 +84,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -84,9 +108,14 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val=""/>
-      <family val="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -171,7 +200,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -193,6 +222,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -201,6 +238,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -281,20 +322,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.1122448979592"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.33163265306122"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.1428571428571"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.5204081632653"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.3367346938776"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.3061224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="24.3061224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -316,92 +357,195 @@
       <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="4" t="n">
         <v>3306</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="4" t="n">
         <v>6379</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="5"/>
+      <c r="F4" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" s="4" t="n">
         <v>27017</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="5"/>
-    </row>
-    <row r="7" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
+      <c r="F5" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="4" t="n">
+        <v>5672</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="8" t="n">
+        <v>3306</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="8" t="n">
+        <v>6379</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="6" t="n">
-        <v>3306</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="6" t="n">
-        <v>6379</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="7"/>
-    </row>
-    <row r="9" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="6" t="n">
+      <c r="D11" s="8"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="8" t="n">
         <v>27017</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="7"/>
+      <c r="C12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="8" t="n">
+        <v>5672</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
